--- a/Reports/Demo_rep_Report_Iteration_12.xlsx
+++ b/Reports/Demo_rep_Report_Iteration_12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView tabRatio="693" windowHeight="7680" windowWidth="24240" xWindow="660" yWindow="4965"/>
+    <workbookView tabRatio="693" windowHeight="7620" windowWidth="24240" xWindow="5715" yWindow="1725"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId1" sheetId="1"/>
@@ -19,7 +19,8 @@
     <sheet name="ToolVersion" r:id="rId10" sheetId="22896" state="hidden"/>
     <sheet name="ProcedureVersion" r:id="rId11" sheetId="22903" state="hidden"/>
     <sheet name="Result Matrix" r:id="rId12" sheetId="22904" state="hidden"/>
-    <sheet name="Report" r:id="rId17" sheetId="22905"/>
+    <sheet name="Report" r:id="rId13" sheetId="22905"/>
+    <sheet name="Raw Result" r:id="rId18" sheetId="22906"/>
   </sheets>
   <definedNames>
     <definedName name="_context">defaultValues!$F$3:$F$4</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="664">
   <si>
     <t>Regression thread</t>
   </si>
@@ -1879,6 +1880,36 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>Attribute_Description(MCS)</t>
+  </si>
+  <si>
+    <t>DC_Data_Type</t>
+  </si>
+  <si>
+    <t>v0_label(0)</t>
+  </si>
+  <si>
+    <t>v0_Severity</t>
+  </si>
+  <si>
+    <t>v0_State</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Eqpt_Description(MCS)</t>
+  </si>
+  <si>
+    <t>Eqpt_Identifier</t>
+  </si>
+  <si>
+    <t>Register_Address/File</t>
+  </si>
+  <si>
+    <t>Bit_offset</t>
+  </si>
+  <si>
     <t>13-07-2017</t>
   </si>
   <si>
@@ -1900,6 +1931,36 @@
     <t>Triggering State</t>
   </si>
   <si>
+    <t>v0_label(1)</t>
+  </si>
+  <si>
+    <t>v1_label(2)</t>
+  </si>
+  <si>
+    <t>v1_Severity</t>
+  </si>
+  <si>
+    <t>v1_State</t>
+  </si>
+  <si>
+    <t>v2_label(3)</t>
+  </si>
+  <si>
+    <t>v2_Severity</t>
+  </si>
+  <si>
+    <t>v2_State</t>
+  </si>
+  <si>
+    <t>v3_label(4)</t>
+  </si>
+  <si>
+    <t>v3_Severity</t>
+  </si>
+  <si>
+    <t>v3_State</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -1912,6 +1973,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>Link to Raw Result</t>
+  </si>
+  <si>
+    <t>Air Handling Unit</t>
+  </si>
+  <si>
+    <t>AH1J</t>
+  </si>
+  <si>
     <t>ECS-AHU-G-01</t>
   </si>
   <si>
@@ -1924,9 +1994,6 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Off</t>
   </si>
   <si>
@@ -1951,6 +2018,9 @@
     <t>2.0</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -1978,21 +2048,6 @@
     <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">ECS-AHU-G-01-</t>
-  </si>
-  <si>
-    <t>On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On-</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -2005,6 +2060,12 @@
     <t>DI2</t>
   </si>
   <si>
+    <t>Motorised Smoke &amp; Fire Damper</t>
+  </si>
+  <si>
+    <t>MFDJ</t>
+  </si>
+  <si>
     <t>ECS-MSFD-001</t>
   </si>
   <si>
@@ -2041,9 +2102,6 @@
     <t>ECS-MSFD-004</t>
   </si>
   <si>
-    <t>Station</t>
-  </si>
-  <si>
     <t>Searched</t>
   </si>
   <si>
@@ -2066,6 +2124,18 @@
   </si>
   <si>
     <t>Alarm Severity</t>
+  </si>
+  <si>
+    <t>1166B_ReportDemoDIDI2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>12-07-2017</t>
+  </si>
+  <si>
+    <t>Demo_rep</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2146,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2343,8 +2413,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="60">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2688,6 +2771,36 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="22"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="22"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
@@ -2695,6 +2808,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3436,7 +3561,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="287">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="24" fontId="25" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="28" fontId="27" numFmtId="0" xfId="0">
@@ -3959,6 +4084,30 @@
     <xf applyBorder="1" applyFont="1" borderId="10" fillId="48" fontId="0" numFmtId="0" xfId="47">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="58" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="59" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="60" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="25" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="50" fillId="52" fontId="40" numFmtId="0" xfId="43">
+      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="52" fontId="40" numFmtId="0" xfId="43">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="62" fontId="43" numFmtId="0" xfId="47" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="46" fontId="20" numFmtId="0" xfId="48">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="46" fillId="50" fontId="20" numFmtId="0" xfId="46">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4079,6 +4228,21 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="33" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="32" fontId="19" numFmtId="0" xfId="34">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4088,42 +4252,27 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="32" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="34" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="44" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="34" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="44" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="34" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="34" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="35" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="35" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="25" fillId="32" fontId="19" numFmtId="0" xfId="34">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="26" fillId="32" fontId="19" numFmtId="0" xfId="34">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="44" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="44" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -4136,138 +4285,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -4341,7 +4427,95 @@
     <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="41"/>
     <cellStyle name="Warning Text" xfId="42"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="22"/>
+          <bgColor indexed="31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -4516,6 +4690,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4634,6 +4809,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4652,6 +4845,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6101,7 +6295,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6155,13 +6349,17 @@
         <f>Language!$D$6</f>
         <v>STD ID</v>
       </c>
-      <c r="E3" s="175"/>
+      <c r="E3" s="175" t="s">
+        <v>660</v>
+      </c>
       <c r="F3" s="149"/>
       <c r="G3" s="157" t="str">
         <f>Language!$D$24</f>
         <v>Written by</v>
       </c>
-      <c r="H3" s="185"/>
+      <c r="H3" s="185" t="s">
+        <v>661</v>
+      </c>
       <c r="I3" s="138"/>
       <c r="J3" s="139"/>
     </row>
@@ -6179,7 +6377,9 @@
         <f>Language!$D$26</f>
         <v>Writing status</v>
       </c>
-      <c r="H4" s="153"/>
+      <c r="H4" s="153" t="s">
+        <v>31</v>
+      </c>
       <c r="I4" s="138"/>
       <c r="J4" s="139"/>
     </row>
@@ -6200,7 +6400,9 @@
         <f>Language!$D$27</f>
         <v>Writing date</v>
       </c>
-      <c r="H5" s="182"/>
+      <c r="H5" s="185" t="s">
+        <v>662</v>
+      </c>
       <c r="I5" s="138"/>
       <c r="J5" s="139"/>
     </row>
@@ -6363,11 +6565,11 @@
       <c r="A15" s="138"/>
       <c r="B15" s="141"/>
       <c r="C15" s="138"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="191"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="199"/>
       <c r="F15" s="149"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="191"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="199"/>
       <c r="I15" s="138"/>
       <c r="J15" s="139"/>
     </row>
@@ -6445,7 +6647,7 @@
         <v>Running date</v>
       </c>
       <c r="H19" s="178" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="I19" s="143"/>
       <c r="J19" s="139"/>
@@ -6461,7 +6663,9 @@
         <f>Language!$D$36</f>
         <v>IO schedule version</v>
       </c>
-      <c r="E20" s="184"/>
+      <c r="E20" t="s" s="184">
+        <v>663</v>
+      </c>
       <c r="F20" s="149"/>
       <c r="G20" s="149"/>
       <c r="H20" s="149"/>
@@ -6517,7 +6721,9 @@
         <f>Language!$D$39</f>
         <v>Total steps</v>
       </c>
-      <c r="E23" s="155"/>
+      <c r="E23" t="n" s="184">
+        <v>15.0</v>
+      </c>
       <c r="F23" s="149"/>
       <c r="G23" s="150" t="str">
         <f>Language!$D$46</f>
@@ -6570,10 +6776,12 @@
         <f>Language!$D$50</f>
         <v>Total Not Tested</v>
       </c>
-      <c r="E26" s="159"/>
+      <c r="E26" t="n" s="155">
+        <v>0.0</v>
+      </c>
       <c r="F26" s="149"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="193"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="201"/>
       <c r="I26" s="138"/>
       <c r="J26" s="139"/>
     </row>
@@ -6585,10 +6793,12 @@
         <f>Language!$D$51</f>
         <v>Total OK</v>
       </c>
-      <c r="E27" s="155"/>
+      <c r="E27" t="n" s="155">
+        <v>11.0</v>
+      </c>
       <c r="F27" s="149"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="195"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="203"/>
       <c r="I27" s="143"/>
       <c r="J27" s="139"/>
     </row>
@@ -6599,10 +6809,12 @@
         <f>Language!$D$52</f>
         <v>Total OKWC</v>
       </c>
-      <c r="E28" s="155"/>
+      <c r="E28" s="155">
+        <v>0</v>
+      </c>
       <c r="F28" s="149"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="205"/>
       <c r="I28" s="143"/>
       <c r="J28" s="139"/>
     </row>
@@ -6613,7 +6825,9 @@
         <f>Language!$D$53</f>
         <v>Total NOK</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" t="n" s="155">
+        <v>3.0</v>
+      </c>
       <c r="F29" s="149"/>
       <c r="G29" s="149"/>
       <c r="H29" s="149"/>
@@ -6628,7 +6842,9 @@
         <f>Language!$D$54</f>
         <v>Total Not Testable</v>
       </c>
-      <c r="E30" s="155"/>
+      <c r="E30" s="155">
+        <v>0</v>
+      </c>
       <c r="F30" s="149"/>
       <c r="G30" s="160" t="str">
         <f>Language!$D$118</f>
@@ -6646,10 +6862,12 @@
         <f>Language!$D$55</f>
         <v>Total Out Of Scope</v>
       </c>
-      <c r="E31" s="155"/>
+      <c r="E31" t="n" s="155">
+        <v>1.0</v>
+      </c>
       <c r="F31" s="149"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="199"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="207"/>
       <c r="I31" s="143"/>
       <c r="J31" s="139"/>
     </row>
@@ -6661,10 +6879,12 @@
         <f>Language!$D$56</f>
         <v>Test case result</v>
       </c>
-      <c r="E32" s="156"/>
+      <c r="E32" t="n" s="155">
+        <v>15.0</v>
+      </c>
       <c r="F32" s="149"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="201"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="209"/>
       <c r="I32" s="143"/>
       <c r="J32" s="139"/>
     </row>
@@ -6802,19 +7022,19 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E32">
-    <cfRule dxfId="4" operator="equal" priority="1" type="cellIs">
+    <cfRule dxfId="11" operator="equal" priority="1" type="cellIs">
       <formula>"not testable"</formula>
     </cfRule>
-    <cfRule dxfId="3" operator="equal" priority="2" type="cellIs">
+    <cfRule dxfId="10" operator="equal" priority="2" type="cellIs">
       <formula>"out of scope"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="3" type="cellIs">
+    <cfRule dxfId="9" operator="equal" priority="3" type="cellIs">
       <formula>"failed"</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="equal" priority="4" type="cellIs">
+    <cfRule dxfId="8" operator="equal" priority="4" type="cellIs">
       <formula>"passed with comment"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="5" type="cellIs">
+    <cfRule dxfId="7" operator="equal" priority="5" type="cellIs">
       <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6881,7 +7101,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 253" r:id="rId5" shapeId="4349">
+            <control name="CommandButton1" r:id="rId5" shapeId="4349">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowTester">
                 <anchor>
                   <from>
@@ -6903,7 +7123,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 255" r:id="rId6" shapeId="4351">
+            <control name="CommandButton1" r:id="rId6" shapeId="4351">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowIVVQEngineer">
                 <anchor>
                   <from>
@@ -6925,7 +7145,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 256" r:id="rId7" shapeId="4352">
+            <control name="CommandButton1" r:id="rId7" shapeId="4352">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowAumation">
                 <anchor>
                   <from>
@@ -6947,7 +7167,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 257" r:id="rId8" shapeId="4353">
+            <control name="CommandButton1" r:id="rId8" shapeId="4353">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowImport">
                 <anchor>
                   <from>
@@ -6969,7 +7189,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 258" r:id="rId9" shapeId="4354">
+            <control name="CommandButton1" r:id="rId9" shapeId="4354">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowExport">
                 <anchor>
                   <from>
@@ -6991,7 +7211,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 259" r:id="rId10" shapeId="4355">
+            <control name="CommandButton1" r:id="rId10" shapeId="4355">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowViews">
                 <anchor>
                   <from>
@@ -7013,7 +7233,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 260" r:id="rId11" shapeId="4356">
+            <control name="CommandButton1" r:id="rId11" shapeId="4356">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowHowTo">
                 <anchor>
                   <from>
@@ -7035,7 +7255,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 262" r:id="rId12" shapeId="4358">
+            <control name="CommandButton1" r:id="rId12" shapeId="4358">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowCustom">
                 <anchor>
                   <from>
@@ -7656,14 +7876,14 @@
   </cols>
   <sheetData>
     <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="253" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="123" t="s">
@@ -7686,7 +7906,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="254" t="s">
         <v>513</v>
       </c>
       <c r="B3" s="129" t="s">
@@ -7712,7 +7932,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="246"/>
+      <c r="A4" s="254"/>
       <c r="B4" s="132" t="s">
         <v>30</v>
       </c>
@@ -7736,27 +7956,27 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="246"/>
+      <c r="A5" s="254"/>
       <c r="B5" s="129" t="s">
         <v>515</v>
       </c>
       <c r="C5" s="130" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="247" t="s">
+      <c r="D5" s="255" t="s">
         <v>516</v>
       </c>
-      <c r="E5" s="247"/>
+      <c r="E5" s="255"/>
       <c r="F5" s="130">
         <v>0</v>
       </c>
-      <c r="G5" s="247" t="s">
+      <c r="G5" s="255" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="247"/>
+      <c r="H5" s="255"/>
     </row>
     <row customHeight="1" ht="14.25" r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="246"/>
+      <c r="A6" s="254"/>
       <c r="B6" s="133" t="s">
         <v>517</v>
       </c>
@@ -7780,7 +8000,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="246"/>
+      <c r="A7" s="254"/>
       <c r="B7" s="134" t="s">
         <v>284</v>
       </c>
@@ -7804,7 +8024,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="246"/>
+      <c r="A8" s="254"/>
       <c r="B8" s="135" t="s">
         <v>160</v>
       </c>
@@ -7828,7 +8048,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="246"/>
+      <c r="A9" s="254"/>
       <c r="B9" s="136" t="s">
         <v>22</v>
       </c>
@@ -7884,6 +8104,983 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row customFormat="1" ht="51" r="1" s="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="193" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="193" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1" s="192" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1" s="190" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="191" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" t="s" s="193">
+        <v>595</v>
+      </c>
+      <c r="G1" t="s" s="193">
+        <v>581</v>
+      </c>
+      <c r="H1" t="s" s="193">
+        <v>582</v>
+      </c>
+      <c r="I1" t="s" s="193">
+        <v>596</v>
+      </c>
+      <c r="J1" t="s" s="193">
+        <v>597</v>
+      </c>
+      <c r="K1" t="s" s="193">
+        <v>598</v>
+      </c>
+      <c r="L1" t="s" s="193">
+        <v>599</v>
+      </c>
+      <c r="M1" t="s" s="193">
+        <v>600</v>
+      </c>
+      <c r="N1" t="s" s="193">
+        <v>601</v>
+      </c>
+      <c r="O1" t="s" s="193">
+        <v>602</v>
+      </c>
+      <c r="P1" t="s" s="193">
+        <v>603</v>
+      </c>
+      <c r="Q1" t="s" s="193">
+        <v>604</v>
+      </c>
+      <c r="R1" t="s" s="193">
+        <v>586</v>
+      </c>
+      <c r="S1" t="s" s="193">
+        <v>587</v>
+      </c>
+      <c r="T1" t="s" s="194">
+        <v>354</v>
+      </c>
+      <c r="U1" t="s" s="194">
+        <v>356</v>
+      </c>
+      <c r="V1" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s" s="194">
+        <v>264</v>
+      </c>
+      <c r="X1" t="s" s="194">
+        <v>162</v>
+      </c>
+      <c r="Y1" t="s" s="194">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>614</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>605</v>
+      </c>
+      <c r="S3" t="s">
+        <v>606</v>
+      </c>
+      <c r="T3" t="s" s="258">
+        <v>284</v>
+      </c>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W3" s="197"/>
+      <c r="X3" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y3" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>618</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>605</v>
+      </c>
+      <c r="S4" t="s">
+        <v>608</v>
+      </c>
+      <c r="T4" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W4" s="197"/>
+      <c r="X4" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y4" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>622</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>624</v>
+      </c>
+      <c r="R5" t="s">
+        <v>605</v>
+      </c>
+      <c r="S5" t="s">
+        <v>620</v>
+      </c>
+      <c r="T5" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W5" s="197"/>
+      <c r="X5" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y5" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F6" t="s">
+        <v>616</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>614</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>605</v>
+      </c>
+      <c r="S6" t="s">
+        <v>626</v>
+      </c>
+      <c r="T6" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W6" s="197"/>
+      <c r="X6" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y6" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>618</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>605</v>
+      </c>
+      <c r="S7" t="s">
+        <v>628</v>
+      </c>
+      <c r="T7" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U7" s="197"/>
+      <c r="V7" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W7" s="197"/>
+      <c r="X7" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y7" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" t="s">
+        <v>621</v>
+      </c>
+      <c r="E8" t="s">
+        <v>607</v>
+      </c>
+      <c r="F8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>622</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>624</v>
+      </c>
+      <c r="R8" t="s">
+        <v>605</v>
+      </c>
+      <c r="S8" t="s">
+        <v>629</v>
+      </c>
+      <c r="T8" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W8" s="197"/>
+      <c r="X8" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y8" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C9" t="s">
+        <v>631</v>
+      </c>
+      <c r="D9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E9" t="s">
+        <v>607</v>
+      </c>
+      <c r="F9" t="s">
+        <v>616</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>614</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>605</v>
+      </c>
+      <c r="S9" t="s">
+        <v>630</v>
+      </c>
+      <c r="T9" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U9" s="197"/>
+      <c r="V9" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W9" s="197"/>
+      <c r="X9" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y9" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" t="s">
+        <v>631</v>
+      </c>
+      <c r="D10" t="s">
+        <v>617</v>
+      </c>
+      <c r="E10" t="s">
+        <v>607</v>
+      </c>
+      <c r="F10" t="s">
+        <v>619</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>618</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>605</v>
+      </c>
+      <c r="S10" t="s">
+        <v>632</v>
+      </c>
+      <c r="T10" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W10" s="197"/>
+      <c r="X10" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y10" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E11" t="s">
+        <v>607</v>
+      </c>
+      <c r="F11" t="s">
+        <v>625</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>622</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>624</v>
+      </c>
+      <c r="R11" t="s">
+        <v>605</v>
+      </c>
+      <c r="S11" t="s">
+        <v>633</v>
+      </c>
+      <c r="T11" t="s" s="262">
+        <v>284</v>
+      </c>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W11" s="197"/>
+      <c r="X11" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y11" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" t="s">
+        <v>610</v>
+      </c>
+      <c r="C12" t="s">
+        <v>635</v>
+      </c>
+      <c r="D12" t="s">
+        <v>613</v>
+      </c>
+      <c r="E12" t="s">
+        <v>607</v>
+      </c>
+      <c r="F12" t="s">
+        <v>616</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>614</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>605</v>
+      </c>
+      <c r="S12" t="s">
+        <v>634</v>
+      </c>
+      <c r="T12" t="s" s="273">
+        <v>284</v>
+      </c>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W12" s="197"/>
+      <c r="X12" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y12" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" t="s">
+        <v>638</v>
+      </c>
+      <c r="C13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E13" t="s">
+        <v>637</v>
+      </c>
+      <c r="F13" t="s">
+        <v>645</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>642</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>643</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>644</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>624</v>
+      </c>
+      <c r="R13" t="s">
+        <v>636</v>
+      </c>
+      <c r="S13" t="s">
+        <v>606</v>
+      </c>
+      <c r="T13" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W13" s="197"/>
+      <c r="X13" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y13" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" t="s">
+        <v>638</v>
+      </c>
+      <c r="C14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D14" t="s">
+        <v>641</v>
+      </c>
+      <c r="E14" t="s">
+        <v>637</v>
+      </c>
+      <c r="F14" t="s">
+        <v>645</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>642</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>643</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>644</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>624</v>
+      </c>
+      <c r="R14" t="s">
+        <v>646</v>
+      </c>
+      <c r="S14" t="s">
+        <v>606</v>
+      </c>
+      <c r="T14" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W14" s="197"/>
+      <c r="X14" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y14" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" t="s">
+        <v>649</v>
+      </c>
+      <c r="D15" t="s">
+        <v>641</v>
+      </c>
+      <c r="E15" t="s">
+        <v>637</v>
+      </c>
+      <c r="F15" t="s">
+        <v>645</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>642</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>643</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>644</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>624</v>
+      </c>
+      <c r="R15" t="s">
+        <v>648</v>
+      </c>
+      <c r="S15" t="s">
+        <v>606</v>
+      </c>
+      <c r="T15" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W15" s="197"/>
+      <c r="X15" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y15" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C16" t="s">
+        <v>651</v>
+      </c>
+      <c r="D16" t="s">
+        <v>641</v>
+      </c>
+      <c r="E16" t="s">
+        <v>637</v>
+      </c>
+      <c r="F16" t="s">
+        <v>645</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>642</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>643</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>644</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>624</v>
+      </c>
+      <c r="R16" t="s">
+        <v>650</v>
+      </c>
+      <c r="S16" t="s">
+        <v>606</v>
+      </c>
+      <c r="T16" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="W16" s="197"/>
+      <c r="X16" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="Y16" t="s" s="197">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2">
+    <cfRule dxfId="6" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>"OS"</formula>
+    </cfRule>
+    <cfRule dxfId="5" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>"NT"</formula>
+    </cfRule>
+    <cfRule dxfId="4" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>"OKWC"</formula>
+    </cfRule>
+    <cfRule dxfId="3" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="5" stopIfTrue="1" type="cellIs">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule dxfId="1" priority="6" stopIfTrue="1" type="expression">
+      <formula>$B2="X"</formula>
+    </cfRule>
+    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
+      <formula>NOT(ISERROR(SEARCH("P",$B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink location="'Raw Result'!3:3" ref="V3"/>
+    <hyperlink location="'Raw Result'!6:6" ref="V4"/>
+    <hyperlink location="'Raw Result'!9:9" ref="V5"/>
+    <hyperlink location="'Raw Result'!12:12" ref="V6"/>
+    <hyperlink location="'Raw Result'!15:15" ref="V7"/>
+    <hyperlink location="'Raw Result'!18:18" ref="V8"/>
+    <hyperlink location="'Raw Result'!21:21" ref="V9"/>
+    <hyperlink location="'Raw Result'!24:24" ref="V10"/>
+    <hyperlink location="'Raw Result'!27:27" ref="V11"/>
+    <hyperlink location="'Raw Result'!30:30" ref="V12"/>
+    <hyperlink location="'Raw Result'!33:33" ref="V13"/>
+    <hyperlink location="'Raw Result'!38:38" ref="V14"/>
+    <hyperlink location="'Raw Result'!43:43" ref="V15"/>
+    <hyperlink location="'Raw Result'!48:48" ref="V16"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7908,16 +9105,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="210" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
     </row>
     <row ht="15" r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -8208,7 +9405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22905.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22906.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:U52"/>
   <sheetViews>
@@ -8217,92 +9414,92 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="248">
-        <v>579</v>
-      </c>
-      <c r="B1" t="s" s="249">
-        <v>580</v>
-      </c>
-      <c r="C1" t="s" s="250">
-        <v>581</v>
-      </c>
-      <c r="D1" t="s" s="251">
-        <v>582</v>
-      </c>
-      <c r="E1" t="s" s="252">
+      <c r="A1" t="s" s="256">
+        <v>589</v>
+      </c>
+      <c r="B1" t="s" s="256">
+        <v>590</v>
+      </c>
+      <c r="C1" t="s" s="256">
+        <v>591</v>
+      </c>
+      <c r="D1" t="s" s="256">
+        <v>592</v>
+      </c>
+      <c r="E1" t="s" s="256">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s" s="256">
+        <v>594</v>
+      </c>
+      <c r="G1" t="s" s="280">
         <v>583</v>
       </c>
-      <c r="F1" t="s" s="253">
-        <v>584</v>
-      </c>
-      <c r="G1" t="s" s="371">
-        <v>631</v>
-      </c>
-      <c r="I1" t="s" s="372">
-        <v>634</v>
-      </c>
-      <c r="K1" t="s" s="373">
-        <v>635</v>
-      </c>
-      <c r="M1" t="s" s="374">
-        <v>636</v>
-      </c>
-      <c r="O1" t="s" s="375">
-        <v>637</v>
-      </c>
-      <c r="Q1" t="s" s="376">
-        <v>638</v>
-      </c>
-      <c r="S1" t="s" s="377">
-        <v>639</v>
+      <c r="I1" t="s" s="281">
+        <v>654</v>
+      </c>
+      <c r="K1" t="s" s="282">
+        <v>655</v>
+      </c>
+      <c r="M1" t="s" s="283">
+        <v>656</v>
+      </c>
+      <c r="O1" t="s" s="284">
+        <v>657</v>
+      </c>
+      <c r="Q1" t="s" s="285">
+        <v>658</v>
+      </c>
+      <c r="S1" t="s" s="286">
+        <v>659</v>
       </c>
     </row>
     <row r="2">
       <c r="G2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="H2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="I2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="J2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="K2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="L2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="M2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="N2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="O2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="P2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="Q2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="R2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="S2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="T2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="254">
+      <c r="A3" t="s" s="257">
         <v>284</v>
       </c>
     </row>
@@ -8311,81 +9508,117 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D4" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E4" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F4" t="s">
-        <v>588</v>
-      </c>
-      <c r="G4" t="s" s="255">
-        <v>589</v>
-      </c>
-      <c r="H4" t="s" s="255">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s" s="256">
-        <v>590</v>
-      </c>
-      <c r="J4" t="s" s="256">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I4" t="s">
+        <v>610</v>
+      </c>
+      <c r="J4" t="s">
+        <v>610</v>
       </c>
       <c r="K4" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="L4" t="s">
-        <v>591</v>
-      </c>
-      <c r="M4" t="s" s="257">
-        <v>592</v>
-      </c>
-      <c r="N4" t="s" s="257">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M4" t="s">
+        <v>612</v>
+      </c>
+      <c r="N4" t="s">
+        <v>612</v>
+      </c>
+      <c r="O4" t="s">
+        <v>613</v>
+      </c>
+      <c r="P4" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>614</v>
+      </c>
+      <c r="R4" t="s">
+        <v>614</v>
+      </c>
+      <c r="S4" t="s">
+        <v>615</v>
+      </c>
+      <c r="T4" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="258">
+      <c r="B5" t="s" s="259">
         <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D5" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E5" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F5" t="s">
-        <v>586</v>
-      </c>
-      <c r="G5" t="s" s="259">
-        <v>589</v>
-      </c>
-      <c r="H5" t="s" s="259">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s" s="260">
-        <v>590</v>
-      </c>
-      <c r="J5" t="s" s="260">
-        <v>284</v>
+        <v>606</v>
+      </c>
+      <c r="G5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" t="s">
+        <v>610</v>
+      </c>
+      <c r="J5" t="s">
+        <v>610</v>
       </c>
       <c r="K5" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="L5" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="M5" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="N5" t="s">
-        <v>592</v>
+        <v>612</v>
+      </c>
+      <c r="O5" t="s">
+        <v>613</v>
+      </c>
+      <c r="P5" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q5" t="s" s="260">
+        <v>616</v>
+      </c>
+      <c r="R5" t="s" s="260">
+        <v>614</v>
+      </c>
+      <c r="S5" t="s">
+        <v>615</v>
+      </c>
+      <c r="T5" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="6">
@@ -8398,40 +9631,58 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D7" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E7" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="F7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G7" t="s" s="261">
-        <v>589</v>
-      </c>
-      <c r="H7" t="s" s="261">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s" s="262">
-        <v>595</v>
-      </c>
-      <c r="J7" t="s" s="262">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" t="s">
+        <v>610</v>
+      </c>
+      <c r="J7" t="s">
+        <v>610</v>
       </c>
       <c r="K7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="L7" t="s">
-        <v>596</v>
-      </c>
-      <c r="M7" t="s" s="263">
-        <v>592</v>
-      </c>
-      <c r="N7" t="s" s="263">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M7" t="s">
+        <v>612</v>
+      </c>
+      <c r="N7" t="s">
+        <v>612</v>
+      </c>
+      <c r="O7" t="s">
+        <v>617</v>
+      </c>
+      <c r="P7" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>618</v>
+      </c>
+      <c r="R7" t="s">
+        <v>618</v>
+      </c>
+      <c r="S7" t="s">
+        <v>615</v>
+      </c>
+      <c r="T7" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="8">
@@ -8439,40 +9690,58 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D8" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E8" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="F8" t="s">
-        <v>586</v>
-      </c>
-      <c r="G8" t="s" s="264">
-        <v>589</v>
-      </c>
-      <c r="H8" t="s" s="264">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s" s="265">
-        <v>595</v>
-      </c>
-      <c r="J8" t="s" s="265">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I8" t="s">
+        <v>610</v>
+      </c>
+      <c r="J8" t="s">
+        <v>610</v>
       </c>
       <c r="K8" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="L8" t="s">
-        <v>597</v>
-      </c>
-      <c r="M8" t="s" s="266">
-        <v>592</v>
-      </c>
-      <c r="N8" t="s" s="266">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M8" t="s">
+        <v>612</v>
+      </c>
+      <c r="N8" t="s">
+        <v>612</v>
+      </c>
+      <c r="O8" t="s">
+        <v>617</v>
+      </c>
+      <c r="P8" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>619</v>
+      </c>
+      <c r="R8" t="s">
+        <v>619</v>
+      </c>
+      <c r="S8" t="s">
+        <v>615</v>
+      </c>
+      <c r="T8" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="9">
@@ -8485,40 +9754,58 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D10" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E10" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="F10" t="s">
-        <v>588</v>
-      </c>
-      <c r="G10" t="s" s="267">
-        <v>589</v>
-      </c>
-      <c r="H10" t="s" s="267">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s" s="268">
-        <v>599</v>
-      </c>
-      <c r="J10" t="s" s="268">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" t="s">
+        <v>610</v>
+      </c>
+      <c r="J10" t="s">
+        <v>610</v>
       </c>
       <c r="K10" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="L10" t="s">
-        <v>600</v>
-      </c>
-      <c r="M10" t="s" s="269">
-        <v>601</v>
-      </c>
-      <c r="N10" t="s" s="269">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M10" t="s">
+        <v>612</v>
+      </c>
+      <c r="N10" t="s">
+        <v>612</v>
+      </c>
+      <c r="O10" t="s">
+        <v>621</v>
+      </c>
+      <c r="P10" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>622</v>
+      </c>
+      <c r="R10" t="s">
+        <v>622</v>
+      </c>
+      <c r="S10" t="s">
+        <v>623</v>
+      </c>
+      <c r="T10" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="11">
@@ -8526,40 +9813,58 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D11" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E11" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="F11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G11" t="s" s="270">
-        <v>589</v>
-      </c>
-      <c r="H11" t="s" s="270">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s" s="271">
-        <v>599</v>
-      </c>
-      <c r="J11" t="s" s="271">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H11" t="s">
+        <v>340</v>
+      </c>
+      <c r="I11" t="s">
+        <v>610</v>
+      </c>
+      <c r="J11" t="s">
+        <v>610</v>
       </c>
       <c r="K11" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="L11" t="s">
-        <v>602</v>
-      </c>
-      <c r="M11" t="s" s="272">
-        <v>592</v>
-      </c>
-      <c r="N11" t="s" s="272">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M11" t="s">
+        <v>612</v>
+      </c>
+      <c r="N11" t="s">
+        <v>612</v>
+      </c>
+      <c r="O11" t="s">
+        <v>621</v>
+      </c>
+      <c r="P11" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>625</v>
+      </c>
+      <c r="R11" t="s">
+        <v>625</v>
+      </c>
+      <c r="S11" t="s">
+        <v>615</v>
+      </c>
+      <c r="T11" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="12">
@@ -8572,40 +9877,58 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E13" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="F13" t="s">
-        <v>588</v>
-      </c>
-      <c r="G13" t="s" s="273">
-        <v>604</v>
-      </c>
-      <c r="H13" t="s" s="273">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s" s="274">
-        <v>590</v>
-      </c>
-      <c r="J13" t="s" s="274">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" t="s">
+        <v>610</v>
+      </c>
+      <c r="J13" t="s">
+        <v>610</v>
       </c>
       <c r="K13" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="L13" t="s">
-        <v>591</v>
-      </c>
-      <c r="M13" t="s" s="275">
-        <v>592</v>
-      </c>
-      <c r="N13" t="s" s="275">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M13" t="s">
+        <v>627</v>
+      </c>
+      <c r="N13" t="s">
+        <v>627</v>
+      </c>
+      <c r="O13" t="s">
+        <v>613</v>
+      </c>
+      <c r="P13" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>614</v>
+      </c>
+      <c r="R13" t="s">
+        <v>614</v>
+      </c>
+      <c r="S13" t="s">
+        <v>615</v>
+      </c>
+      <c r="T13" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="14">
@@ -8613,40 +9936,58 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D14" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E14" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="F14" t="s">
-        <v>586</v>
-      </c>
-      <c r="G14" t="s" s="276">
-        <v>604</v>
-      </c>
-      <c r="H14" t="s" s="276">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s" s="277">
-        <v>590</v>
-      </c>
-      <c r="J14" t="s" s="277">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G14" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" t="s">
+        <v>610</v>
+      </c>
+      <c r="J14" t="s">
+        <v>610</v>
       </c>
       <c r="K14" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="L14" t="s">
-        <v>594</v>
-      </c>
-      <c r="M14" t="s" s="278">
-        <v>592</v>
-      </c>
-      <c r="N14" t="s" s="278">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M14" t="s">
+        <v>627</v>
+      </c>
+      <c r="N14" t="s">
+        <v>627</v>
+      </c>
+      <c r="O14" t="s">
+        <v>613</v>
+      </c>
+      <c r="P14" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>616</v>
+      </c>
+      <c r="R14" t="s">
+        <v>616</v>
+      </c>
+      <c r="S14" t="s">
+        <v>615</v>
+      </c>
+      <c r="T14" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="15">
@@ -8659,40 +10000,58 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D16" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E16" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="F16" t="s">
-        <v>588</v>
-      </c>
-      <c r="G16" t="s" s="279">
-        <v>604</v>
-      </c>
-      <c r="H16" t="s" s="279">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s" s="280">
-        <v>595</v>
-      </c>
-      <c r="J16" t="s" s="280">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G16" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" t="s">
+        <v>340</v>
+      </c>
+      <c r="I16" t="s">
+        <v>610</v>
+      </c>
+      <c r="J16" t="s">
+        <v>610</v>
       </c>
       <c r="K16" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="L16" t="s">
-        <v>596</v>
-      </c>
-      <c r="M16" t="s" s="281">
-        <v>592</v>
-      </c>
-      <c r="N16" t="s" s="281">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M16" t="s">
+        <v>627</v>
+      </c>
+      <c r="N16" t="s">
+        <v>627</v>
+      </c>
+      <c r="O16" t="s">
+        <v>617</v>
+      </c>
+      <c r="P16" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>618</v>
+      </c>
+      <c r="R16" t="s">
+        <v>618</v>
+      </c>
+      <c r="S16" t="s">
+        <v>615</v>
+      </c>
+      <c r="T16" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="17">
@@ -8700,40 +10059,58 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D17" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E17" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="F17" t="s">
-        <v>586</v>
-      </c>
-      <c r="G17" t="s" s="282">
-        <v>604</v>
-      </c>
-      <c r="H17" t="s" s="282">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s" s="283">
-        <v>595</v>
-      </c>
-      <c r="J17" t="s" s="283">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G17" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" t="s">
+        <v>340</v>
+      </c>
+      <c r="I17" t="s">
+        <v>610</v>
+      </c>
+      <c r="J17" t="s">
+        <v>610</v>
       </c>
       <c r="K17" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="L17" t="s">
-        <v>597</v>
-      </c>
-      <c r="M17" t="s" s="284">
-        <v>592</v>
-      </c>
-      <c r="N17" t="s" s="284">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M17" t="s">
+        <v>627</v>
+      </c>
+      <c r="N17" t="s">
+        <v>627</v>
+      </c>
+      <c r="O17" t="s">
+        <v>617</v>
+      </c>
+      <c r="P17" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>619</v>
+      </c>
+      <c r="R17" t="s">
+        <v>619</v>
+      </c>
+      <c r="S17" t="s">
+        <v>615</v>
+      </c>
+      <c r="T17" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="18">
@@ -8746,40 +10123,58 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D19" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E19" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="F19" t="s">
-        <v>588</v>
-      </c>
-      <c r="G19" t="s" s="285">
-        <v>604</v>
-      </c>
-      <c r="H19" t="s" s="285">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s" s="286">
-        <v>599</v>
-      </c>
-      <c r="J19" t="s" s="286">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H19" t="s">
+        <v>340</v>
+      </c>
+      <c r="I19" t="s">
+        <v>610</v>
+      </c>
+      <c r="J19" t="s">
+        <v>610</v>
       </c>
       <c r="K19" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="L19" t="s">
-        <v>600</v>
-      </c>
-      <c r="M19" t="s" s="287">
-        <v>601</v>
-      </c>
-      <c r="N19" t="s" s="287">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M19" t="s">
+        <v>627</v>
+      </c>
+      <c r="N19" t="s">
+        <v>627</v>
+      </c>
+      <c r="O19" t="s">
+        <v>621</v>
+      </c>
+      <c r="P19" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>622</v>
+      </c>
+      <c r="R19" t="s">
+        <v>622</v>
+      </c>
+      <c r="S19" t="s">
+        <v>623</v>
+      </c>
+      <c r="T19" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="20">
@@ -8787,40 +10182,58 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D20" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E20" t="s">
+        <v>629</v>
+      </c>
+      <c r="F20" t="s">
         <v>606</v>
       </c>
-      <c r="F20" t="s">
-        <v>586</v>
-      </c>
-      <c r="G20" t="s" s="288">
-        <v>604</v>
-      </c>
-      <c r="H20" t="s" s="288">
-        <v>22</v>
-      </c>
-      <c r="I20" t="s" s="289">
-        <v>599</v>
-      </c>
-      <c r="J20" t="s" s="289">
-        <v>22</v>
+      <c r="G20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" t="s">
+        <v>340</v>
+      </c>
+      <c r="I20" t="s">
+        <v>610</v>
+      </c>
+      <c r="J20" t="s">
+        <v>610</v>
       </c>
       <c r="K20" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="L20" t="s">
-        <v>602</v>
-      </c>
-      <c r="M20" t="s" s="290">
-        <v>592</v>
-      </c>
-      <c r="N20" t="s" s="290">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M20" t="s">
+        <v>627</v>
+      </c>
+      <c r="N20" t="s">
+        <v>627</v>
+      </c>
+      <c r="O20" t="s">
+        <v>621</v>
+      </c>
+      <c r="P20" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>625</v>
+      </c>
+      <c r="R20" t="s">
+        <v>625</v>
+      </c>
+      <c r="S20" t="s">
+        <v>615</v>
+      </c>
+      <c r="T20" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="21">
@@ -8833,40 +10246,58 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D22" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E22" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="F22" t="s">
-        <v>588</v>
-      </c>
-      <c r="G22" t="s" s="291">
         <v>608</v>
       </c>
-      <c r="H22" t="s" s="291">
-        <v>22</v>
-      </c>
-      <c r="I22" t="s" s="292">
-        <v>590</v>
-      </c>
-      <c r="J22" t="s" s="292">
-        <v>22</v>
+      <c r="G22" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" t="s">
+        <v>610</v>
+      </c>
+      <c r="J22" t="s">
+        <v>610</v>
       </c>
       <c r="K22" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="L22" t="s">
-        <v>591</v>
-      </c>
-      <c r="M22" t="s" s="293">
-        <v>592</v>
-      </c>
-      <c r="N22" t="s" s="293">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M22" t="s">
+        <v>631</v>
+      </c>
+      <c r="N22" t="s">
+        <v>631</v>
+      </c>
+      <c r="O22" t="s">
+        <v>613</v>
+      </c>
+      <c r="P22" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>614</v>
+      </c>
+      <c r="R22" t="s">
+        <v>614</v>
+      </c>
+      <c r="S22" t="s">
+        <v>615</v>
+      </c>
+      <c r="T22" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="23">
@@ -8874,40 +10305,58 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D23" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E23" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="F23" t="s">
-        <v>586</v>
-      </c>
-      <c r="G23" t="s" s="294">
-        <v>608</v>
-      </c>
-      <c r="H23" t="s" s="294">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s" s="295">
-        <v>590</v>
-      </c>
-      <c r="J23" t="s" s="295">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G23" t="s">
+        <v>340</v>
+      </c>
+      <c r="H23" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" t="s">
+        <v>610</v>
+      </c>
+      <c r="J23" t="s">
+        <v>610</v>
       </c>
       <c r="K23" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="L23" t="s">
-        <v>594</v>
-      </c>
-      <c r="M23" t="s" s="296">
-        <v>592</v>
-      </c>
-      <c r="N23" t="s" s="296">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M23" t="s">
+        <v>631</v>
+      </c>
+      <c r="N23" t="s">
+        <v>631</v>
+      </c>
+      <c r="O23" t="s">
+        <v>613</v>
+      </c>
+      <c r="P23" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>616</v>
+      </c>
+      <c r="R23" t="s">
+        <v>616</v>
+      </c>
+      <c r="S23" t="s">
+        <v>615</v>
+      </c>
+      <c r="T23" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="24">
@@ -8920,40 +10369,58 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D25" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E25" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F25" t="s">
-        <v>588</v>
-      </c>
-      <c r="G25" t="s" s="297">
         <v>608</v>
       </c>
-      <c r="H25" t="s" s="297">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s" s="298">
-        <v>595</v>
-      </c>
-      <c r="J25" t="s" s="298">
-        <v>22</v>
+      <c r="G25" t="s">
+        <v>340</v>
+      </c>
+      <c r="H25" t="s">
+        <v>340</v>
+      </c>
+      <c r="I25" t="s">
+        <v>610</v>
+      </c>
+      <c r="J25" t="s">
+        <v>610</v>
       </c>
       <c r="K25" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="L25" t="s">
-        <v>596</v>
-      </c>
-      <c r="M25" t="s" s="299">
-        <v>592</v>
-      </c>
-      <c r="N25" t="s" s="299">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="M25" t="s">
+        <v>631</v>
+      </c>
+      <c r="N25" t="s">
+        <v>631</v>
+      </c>
+      <c r="O25" t="s">
+        <v>617</v>
+      </c>
+      <c r="P25" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>618</v>
+      </c>
+      <c r="R25" t="s">
+        <v>618</v>
+      </c>
+      <c r="S25" t="s">
+        <v>615</v>
+      </c>
+      <c r="T25" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="26">
@@ -8961,214 +10428,304 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D26" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F26" t="s">
-        <v>586</v>
-      </c>
-      <c r="G26" t="s" s="300">
+        <v>606</v>
+      </c>
+      <c r="G26" t="s">
+        <v>340</v>
+      </c>
+      <c r="H26" t="s">
+        <v>340</v>
+      </c>
+      <c r="I26" t="s">
+        <v>610</v>
+      </c>
+      <c r="J26" t="s">
+        <v>610</v>
+      </c>
+      <c r="K26" t="s">
+        <v>611</v>
+      </c>
+      <c r="L26" t="s">
+        <v>611</v>
+      </c>
+      <c r="M26" t="s">
+        <v>631</v>
+      </c>
+      <c r="N26" t="s">
+        <v>631</v>
+      </c>
+      <c r="O26" t="s">
+        <v>617</v>
+      </c>
+      <c r="P26" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>619</v>
+      </c>
+      <c r="R26" t="s">
+        <v>619</v>
+      </c>
+      <c r="S26" t="s">
+        <v>615</v>
+      </c>
+      <c r="T26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="261">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s" s="263">
+        <v>284</v>
+      </c>
+      <c r="C28" t="s">
+        <v>607</v>
+      </c>
+      <c r="D28" t="s">
+        <v>605</v>
+      </c>
+      <c r="E28" t="s">
+        <v>633</v>
+      </c>
+      <c r="F28" t="s">
         <v>608</v>
       </c>
-      <c r="H26" t="s" s="300">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s" s="301">
-        <v>595</v>
-      </c>
-      <c r="J26" t="s" s="301">
-        <v>22</v>
-      </c>
-      <c r="K26" t="s">
-        <v>597</v>
-      </c>
-      <c r="L26" t="s">
-        <v>597</v>
-      </c>
-      <c r="M26" t="s" s="302">
-        <v>592</v>
-      </c>
-      <c r="N26" t="s" s="302">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="303">
+      <c r="G28" t="s">
+        <v>340</v>
+      </c>
+      <c r="H28" t="s">
+        <v>340</v>
+      </c>
+      <c r="I28" t="s">
+        <v>610</v>
+      </c>
+      <c r="J28" t="s">
+        <v>610</v>
+      </c>
+      <c r="K28" t="s">
+        <v>611</v>
+      </c>
+      <c r="L28" t="s">
+        <v>611</v>
+      </c>
+      <c r="M28" t="s" s="264">
+        <v>631</v>
+      </c>
+      <c r="N28" t="s" s="264">
+        <v>612</v>
+      </c>
+      <c r="O28" t="s" s="265">
+        <v>621</v>
+      </c>
+      <c r="P28" t="s" s="265">
+        <v>613</v>
+      </c>
+      <c r="Q28" t="s" s="266">
+        <v>622</v>
+      </c>
+      <c r="R28" t="s" s="266">
+        <v>616</v>
+      </c>
+      <c r="S28" t="s" s="267">
+        <v>623</v>
+      </c>
+      <c r="T28" t="s" s="267">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s" s="268">
         <v>284</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="s" s="304">
+      <c r="C29" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" t="s">
+        <v>605</v>
+      </c>
+      <c r="E29" t="s">
+        <v>633</v>
+      </c>
+      <c r="F29" t="s">
+        <v>606</v>
+      </c>
+      <c r="G29" t="s">
+        <v>340</v>
+      </c>
+      <c r="H29" t="s">
+        <v>340</v>
+      </c>
+      <c r="I29" t="s">
+        <v>610</v>
+      </c>
+      <c r="J29" t="s">
+        <v>610</v>
+      </c>
+      <c r="K29" t="s">
+        <v>611</v>
+      </c>
+      <c r="L29" t="s">
+        <v>611</v>
+      </c>
+      <c r="M29" t="s" s="269">
+        <v>631</v>
+      </c>
+      <c r="N29" t="s" s="269">
+        <v>612</v>
+      </c>
+      <c r="O29" t="s" s="270">
+        <v>621</v>
+      </c>
+      <c r="P29" t="s" s="270">
+        <v>613</v>
+      </c>
+      <c r="Q29" t="s" s="271">
+        <v>625</v>
+      </c>
+      <c r="R29" t="s" s="271">
+        <v>614</v>
+      </c>
+      <c r="S29" t="s">
+        <v>615</v>
+      </c>
+      <c r="T29" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="272">
         <v>284</v>
       </c>
-      <c r="C28" t="s">
-        <v>587</v>
-      </c>
-      <c r="D28" t="s">
-        <v>585</v>
-      </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="274">
+        <v>284</v>
+      </c>
+      <c r="C31" t="s">
+        <v>607</v>
+      </c>
+      <c r="D31" t="s">
+        <v>605</v>
+      </c>
+      <c r="E31" t="s">
+        <v>634</v>
+      </c>
+      <c r="F31" t="s">
+        <v>608</v>
+      </c>
+      <c r="G31" t="s">
+        <v>340</v>
+      </c>
+      <c r="H31" t="s">
+        <v>340</v>
+      </c>
+      <c r="I31" t="s">
         <v>610</v>
       </c>
-      <c r="F28" t="s">
-        <v>588</v>
-      </c>
-      <c r="G28" t="s" s="305">
-        <v>608</v>
-      </c>
-      <c r="H28" t="s" s="305">
-        <v>22</v>
-      </c>
-      <c r="I28" t="s" s="306">
-        <v>599</v>
-      </c>
-      <c r="J28" t="s" s="306">
+      <c r="J31" t="s">
+        <v>610</v>
+      </c>
+      <c r="K31" t="s">
         <v>611</v>
       </c>
-      <c r="K28" t="s" s="307">
-        <v>600</v>
-      </c>
-      <c r="L28" t="s" s="307">
+      <c r="L31" t="s">
+        <v>611</v>
+      </c>
+      <c r="M31" t="s" s="275">
+        <v>635</v>
+      </c>
+      <c r="N31" t="s" s="275">
         <v>612</v>
       </c>
-      <c r="M28" t="s" s="308">
-        <v>601</v>
-      </c>
-      <c r="N28" t="s" s="308">
+      <c r="O31" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="s" s="309">
+      <c r="P31" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q31" t="s" s="276">
+        <v>614</v>
+      </c>
+      <c r="R31" t="s" s="276">
+        <v>616</v>
+      </c>
+      <c r="S31" t="s">
+        <v>615</v>
+      </c>
+      <c r="T31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s" s="277">
         <v>284</v>
       </c>
-      <c r="C29" t="s">
-        <v>587</v>
-      </c>
-      <c r="D29" t="s">
-        <v>585</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C32" t="s">
+        <v>607</v>
+      </c>
+      <c r="D32" t="s">
+        <v>605</v>
+      </c>
+      <c r="E32" t="s">
+        <v>634</v>
+      </c>
+      <c r="F32" t="s">
+        <v>606</v>
+      </c>
+      <c r="G32" t="s">
+        <v>340</v>
+      </c>
+      <c r="H32" t="s">
+        <v>340</v>
+      </c>
+      <c r="I32" t="s">
         <v>610</v>
       </c>
-      <c r="F29" t="s">
-        <v>586</v>
-      </c>
-      <c r="G29" t="s" s="310">
-        <v>608</v>
-      </c>
-      <c r="H29" t="s" s="310">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s" s="311">
-        <v>599</v>
-      </c>
-      <c r="J29" t="s" s="311">
+      <c r="J32" t="s">
+        <v>610</v>
+      </c>
+      <c r="K32" t="s">
         <v>611</v>
       </c>
-      <c r="K29" t="s" s="312">
-        <v>602</v>
-      </c>
-      <c r="L29" t="s" s="312">
+      <c r="L32" t="s">
+        <v>611</v>
+      </c>
+      <c r="M32" t="s" s="278">
+        <v>635</v>
+      </c>
+      <c r="N32" t="s" s="278">
         <v>612</v>
       </c>
-      <c r="M29" t="s" s="313">
-        <v>592</v>
-      </c>
-      <c r="N29" t="s" s="313">
+      <c r="O32" t="s">
+        <v>613</v>
+      </c>
+      <c r="P32" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q32" t="s" s="279">
+        <v>616</v>
+      </c>
+      <c r="R32" t="s" s="279">
         <v>614</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="314">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="s" s="315">
-        <v>284</v>
-      </c>
-      <c r="C31" t="s">
-        <v>587</v>
-      </c>
-      <c r="D31" t="s">
-        <v>585</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="S32" t="s">
         <v>615</v>
       </c>
-      <c r="F31" t="s">
-        <v>588</v>
-      </c>
-      <c r="G31" t="s" s="316">
-        <v>616</v>
-      </c>
-      <c r="H31" t="s" s="316">
-        <v>22</v>
-      </c>
-      <c r="I31" t="s" s="317">
-        <v>590</v>
-      </c>
-      <c r="J31" t="s" s="317">
-        <v>611</v>
-      </c>
-      <c r="K31" t="s" s="318">
-        <v>591</v>
-      </c>
-      <c r="L31" t="s" s="318">
-        <v>614</v>
-      </c>
-      <c r="M31" t="s">
-        <v>592</v>
-      </c>
-      <c r="N31" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="s" s="319">
-        <v>284</v>
-      </c>
-      <c r="C32" t="s">
-        <v>587</v>
-      </c>
-      <c r="D32" t="s">
-        <v>585</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="T32" t="s">
         <v>615</v>
-      </c>
-      <c r="F32" t="s">
-        <v>586</v>
-      </c>
-      <c r="G32" t="s" s="320">
-        <v>616</v>
-      </c>
-      <c r="H32" t="s" s="320">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s" s="321">
-        <v>590</v>
-      </c>
-      <c r="J32" t="s" s="321">
-        <v>611</v>
-      </c>
-      <c r="K32" t="s" s="322">
-        <v>594</v>
-      </c>
-      <c r="L32" t="s" s="322">
-        <v>613</v>
-      </c>
-      <c r="M32" t="s">
-        <v>592</v>
-      </c>
-      <c r="N32" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="33">
@@ -9181,40 +10738,58 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D34" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="E34" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F34" t="s">
-        <v>588</v>
-      </c>
-      <c r="G34" t="s" s="323">
-        <v>619</v>
-      </c>
-      <c r="H34" t="s" s="323">
-        <v>22</v>
-      </c>
-      <c r="I34" t="s" s="324">
-        <v>620</v>
-      </c>
-      <c r="J34" t="s" s="324">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G34" t="s">
+        <v>340</v>
+      </c>
+      <c r="H34" t="s">
+        <v>340</v>
+      </c>
+      <c r="I34" t="s">
+        <v>638</v>
+      </c>
+      <c r="J34" t="s">
+        <v>638</v>
       </c>
       <c r="K34" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="L34" t="s">
-        <v>621</v>
-      </c>
-      <c r="M34" t="s" s="325">
-        <v>592</v>
-      </c>
-      <c r="N34" t="s" s="325">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M34" t="s">
+        <v>640</v>
+      </c>
+      <c r="N34" t="s">
+        <v>640</v>
+      </c>
+      <c r="O34" t="s">
+        <v>641</v>
+      </c>
+      <c r="P34" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>642</v>
+      </c>
+      <c r="R34" t="s">
+        <v>642</v>
+      </c>
+      <c r="S34" t="s">
+        <v>615</v>
+      </c>
+      <c r="T34" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="35">
@@ -9222,40 +10797,58 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D35" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="E35" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F35" t="s">
-        <v>598</v>
-      </c>
-      <c r="G35" t="s" s="326">
-        <v>619</v>
-      </c>
-      <c r="H35" t="s" s="326">
-        <v>22</v>
-      </c>
-      <c r="I35" t="s" s="327">
         <v>620</v>
       </c>
-      <c r="J35" t="s" s="327">
-        <v>22</v>
+      <c r="G35" t="s">
+        <v>340</v>
+      </c>
+      <c r="H35" t="s">
+        <v>340</v>
+      </c>
+      <c r="I35" t="s">
+        <v>638</v>
+      </c>
+      <c r="J35" t="s">
+        <v>638</v>
       </c>
       <c r="K35" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="L35" t="s">
-        <v>622</v>
-      </c>
-      <c r="M35" t="s" s="328">
-        <v>592</v>
-      </c>
-      <c r="N35" t="s" s="328">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M35" t="s">
+        <v>640</v>
+      </c>
+      <c r="N35" t="s">
+        <v>640</v>
+      </c>
+      <c r="O35" t="s">
+        <v>641</v>
+      </c>
+      <c r="P35" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>643</v>
+      </c>
+      <c r="R35" t="s">
+        <v>643</v>
+      </c>
+      <c r="S35" t="s">
+        <v>615</v>
+      </c>
+      <c r="T35" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="36">
@@ -9263,40 +10856,58 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D36" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="E36" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F36" t="s">
-        <v>603</v>
-      </c>
-      <c r="G36" t="s" s="329">
-        <v>619</v>
-      </c>
-      <c r="H36" t="s" s="329">
-        <v>22</v>
-      </c>
-      <c r="I36" t="s" s="330">
-        <v>620</v>
-      </c>
-      <c r="J36" t="s" s="330">
-        <v>22</v>
+        <v>626</v>
+      </c>
+      <c r="G36" t="s">
+        <v>340</v>
+      </c>
+      <c r="H36" t="s">
+        <v>340</v>
+      </c>
+      <c r="I36" t="s">
+        <v>638</v>
+      </c>
+      <c r="J36" t="s">
+        <v>638</v>
       </c>
       <c r="K36" t="s">
+        <v>639</v>
+      </c>
+      <c r="L36" t="s">
+        <v>639</v>
+      </c>
+      <c r="M36" t="s">
+        <v>640</v>
+      </c>
+      <c r="N36" t="s">
+        <v>640</v>
+      </c>
+      <c r="O36" t="s">
+        <v>641</v>
+      </c>
+      <c r="P36" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>644</v>
+      </c>
+      <c r="R36" t="s">
+        <v>644</v>
+      </c>
+      <c r="S36" t="s">
         <v>623</v>
       </c>
-      <c r="L36" t="s">
+      <c r="T36" t="s">
         <v>623</v>
-      </c>
-      <c r="M36" t="s" s="331">
-        <v>601</v>
-      </c>
-      <c r="N36" t="s" s="331">
-        <v>593</v>
       </c>
     </row>
     <row r="37">
@@ -9304,40 +10915,58 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D37" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="E37" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F37" t="s">
-        <v>586</v>
-      </c>
-      <c r="G37" t="s" s="332">
-        <v>619</v>
-      </c>
-      <c r="H37" t="s" s="332">
-        <v>22</v>
-      </c>
-      <c r="I37" t="s" s="333">
-        <v>620</v>
-      </c>
-      <c r="J37" t="s" s="333">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G37" t="s">
+        <v>340</v>
+      </c>
+      <c r="H37" t="s">
+        <v>340</v>
+      </c>
+      <c r="I37" t="s">
+        <v>638</v>
+      </c>
+      <c r="J37" t="s">
+        <v>638</v>
       </c>
       <c r="K37" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="L37" t="s">
-        <v>624</v>
-      </c>
-      <c r="M37" t="s" s="334">
-        <v>592</v>
-      </c>
-      <c r="N37" t="s" s="334">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M37" t="s">
+        <v>640</v>
+      </c>
+      <c r="N37" t="s">
+        <v>640</v>
+      </c>
+      <c r="O37" t="s">
+        <v>641</v>
+      </c>
+      <c r="P37" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>645</v>
+      </c>
+      <c r="R37" t="s">
+        <v>645</v>
+      </c>
+      <c r="S37" t="s">
+        <v>615</v>
+      </c>
+      <c r="T37" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="38">
@@ -9350,40 +10979,58 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D39" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="E39" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>588</v>
-      </c>
-      <c r="G39" t="s" s="335">
-        <v>626</v>
-      </c>
-      <c r="H39" t="s" s="335">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s" s="336">
-        <v>620</v>
-      </c>
-      <c r="J39" t="s" s="336">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H39" t="s">
+        <v>340</v>
+      </c>
+      <c r="I39" t="s">
+        <v>638</v>
+      </c>
+      <c r="J39" t="s">
+        <v>638</v>
       </c>
       <c r="K39" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="L39" t="s">
-        <v>621</v>
-      </c>
-      <c r="M39" t="s" s="337">
-        <v>592</v>
-      </c>
-      <c r="N39" t="s" s="337">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M39" t="s">
+        <v>647</v>
+      </c>
+      <c r="N39" t="s">
+        <v>647</v>
+      </c>
+      <c r="O39" t="s">
+        <v>641</v>
+      </c>
+      <c r="P39" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>642</v>
+      </c>
+      <c r="R39" t="s">
+        <v>642</v>
+      </c>
+      <c r="S39" t="s">
+        <v>615</v>
+      </c>
+      <c r="T39" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="40">
@@ -9391,40 +11038,58 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D40" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="E40" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F40" t="s">
-        <v>598</v>
-      </c>
-      <c r="G40" t="s" s="338">
-        <v>626</v>
-      </c>
-      <c r="H40" t="s" s="338">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s" s="339">
         <v>620</v>
       </c>
-      <c r="J40" t="s" s="339">
-        <v>22</v>
+      <c r="G40" t="s">
+        <v>340</v>
+      </c>
+      <c r="H40" t="s">
+        <v>340</v>
+      </c>
+      <c r="I40" t="s">
+        <v>638</v>
+      </c>
+      <c r="J40" t="s">
+        <v>638</v>
       </c>
       <c r="K40" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="L40" t="s">
-        <v>622</v>
-      </c>
-      <c r="M40" t="s" s="340">
-        <v>592</v>
-      </c>
-      <c r="N40" t="s" s="340">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M40" t="s">
+        <v>647</v>
+      </c>
+      <c r="N40" t="s">
+        <v>647</v>
+      </c>
+      <c r="O40" t="s">
+        <v>641</v>
+      </c>
+      <c r="P40" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>643</v>
+      </c>
+      <c r="R40" t="s">
+        <v>643</v>
+      </c>
+      <c r="S40" t="s">
+        <v>615</v>
+      </c>
+      <c r="T40" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="41">
@@ -9432,40 +11097,58 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D41" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="E41" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F41" t="s">
-        <v>603</v>
-      </c>
-      <c r="G41" t="s" s="341">
         <v>626</v>
       </c>
-      <c r="H41" t="s" s="341">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s" s="342">
-        <v>620</v>
-      </c>
-      <c r="J41" t="s" s="342">
-        <v>22</v>
+      <c r="G41" t="s">
+        <v>340</v>
+      </c>
+      <c r="H41" t="s">
+        <v>340</v>
+      </c>
+      <c r="I41" t="s">
+        <v>638</v>
+      </c>
+      <c r="J41" t="s">
+        <v>638</v>
       </c>
       <c r="K41" t="s">
+        <v>639</v>
+      </c>
+      <c r="L41" t="s">
+        <v>639</v>
+      </c>
+      <c r="M41" t="s">
+        <v>647</v>
+      </c>
+      <c r="N41" t="s">
+        <v>647</v>
+      </c>
+      <c r="O41" t="s">
+        <v>641</v>
+      </c>
+      <c r="P41" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>644</v>
+      </c>
+      <c r="R41" t="s">
+        <v>644</v>
+      </c>
+      <c r="S41" t="s">
         <v>623</v>
       </c>
-      <c r="L41" t="s">
+      <c r="T41" t="s">
         <v>623</v>
-      </c>
-      <c r="M41" t="s" s="343">
-        <v>601</v>
-      </c>
-      <c r="N41" t="s" s="343">
-        <v>593</v>
       </c>
     </row>
     <row r="42">
@@ -9473,40 +11156,58 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D42" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="E42" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F42" t="s">
-        <v>586</v>
-      </c>
-      <c r="G42" t="s" s="344">
-        <v>626</v>
-      </c>
-      <c r="H42" t="s" s="344">
-        <v>22</v>
-      </c>
-      <c r="I42" t="s" s="345">
-        <v>620</v>
-      </c>
-      <c r="J42" t="s" s="345">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G42" t="s">
+        <v>340</v>
+      </c>
+      <c r="H42" t="s">
+        <v>340</v>
+      </c>
+      <c r="I42" t="s">
+        <v>638</v>
+      </c>
+      <c r="J42" t="s">
+        <v>638</v>
       </c>
       <c r="K42" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="L42" t="s">
-        <v>624</v>
-      </c>
-      <c r="M42" t="s" s="346">
-        <v>592</v>
-      </c>
-      <c r="N42" t="s" s="346">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M42" t="s">
+        <v>647</v>
+      </c>
+      <c r="N42" t="s">
+        <v>647</v>
+      </c>
+      <c r="O42" t="s">
+        <v>641</v>
+      </c>
+      <c r="P42" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>645</v>
+      </c>
+      <c r="R42" t="s">
+        <v>645</v>
+      </c>
+      <c r="S42" t="s">
+        <v>615</v>
+      </c>
+      <c r="T42" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="43">
@@ -9519,40 +11220,58 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D44" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="E44" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F44" t="s">
-        <v>588</v>
-      </c>
-      <c r="G44" t="s" s="347">
-        <v>628</v>
-      </c>
-      <c r="H44" t="s" s="347">
-        <v>22</v>
-      </c>
-      <c r="I44" t="s" s="348">
-        <v>620</v>
-      </c>
-      <c r="J44" t="s" s="348">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G44" t="s">
+        <v>340</v>
+      </c>
+      <c r="H44" t="s">
+        <v>340</v>
+      </c>
+      <c r="I44" t="s">
+        <v>638</v>
+      </c>
+      <c r="J44" t="s">
+        <v>638</v>
       </c>
       <c r="K44" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="L44" t="s">
-        <v>621</v>
-      </c>
-      <c r="M44" t="s" s="349">
-        <v>592</v>
-      </c>
-      <c r="N44" t="s" s="349">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M44" t="s">
+        <v>649</v>
+      </c>
+      <c r="N44" t="s">
+        <v>649</v>
+      </c>
+      <c r="O44" t="s">
+        <v>641</v>
+      </c>
+      <c r="P44" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>642</v>
+      </c>
+      <c r="R44" t="s">
+        <v>642</v>
+      </c>
+      <c r="S44" t="s">
+        <v>615</v>
+      </c>
+      <c r="T44" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="45">
@@ -9560,40 +11279,58 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D45" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="E45" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F45" t="s">
-        <v>598</v>
-      </c>
-      <c r="G45" t="s" s="350">
-        <v>628</v>
-      </c>
-      <c r="H45" t="s" s="350">
-        <v>22</v>
-      </c>
-      <c r="I45" t="s" s="351">
         <v>620</v>
       </c>
-      <c r="J45" t="s" s="351">
-        <v>22</v>
+      <c r="G45" t="s">
+        <v>340</v>
+      </c>
+      <c r="H45" t="s">
+        <v>340</v>
+      </c>
+      <c r="I45" t="s">
+        <v>638</v>
+      </c>
+      <c r="J45" t="s">
+        <v>638</v>
       </c>
       <c r="K45" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="L45" t="s">
-        <v>622</v>
-      </c>
-      <c r="M45" t="s" s="352">
-        <v>592</v>
-      </c>
-      <c r="N45" t="s" s="352">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M45" t="s">
+        <v>649</v>
+      </c>
+      <c r="N45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O45" t="s">
+        <v>641</v>
+      </c>
+      <c r="P45" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>643</v>
+      </c>
+      <c r="R45" t="s">
+        <v>643</v>
+      </c>
+      <c r="S45" t="s">
+        <v>615</v>
+      </c>
+      <c r="T45" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="46">
@@ -9601,40 +11338,58 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D46" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="E46" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F46" t="s">
-        <v>603</v>
-      </c>
-      <c r="G46" t="s" s="353">
-        <v>628</v>
-      </c>
-      <c r="H46" t="s" s="353">
-        <v>22</v>
-      </c>
-      <c r="I46" t="s" s="354">
-        <v>620</v>
-      </c>
-      <c r="J46" t="s" s="354">
-        <v>22</v>
+        <v>626</v>
+      </c>
+      <c r="G46" t="s">
+        <v>340</v>
+      </c>
+      <c r="H46" t="s">
+        <v>340</v>
+      </c>
+      <c r="I46" t="s">
+        <v>638</v>
+      </c>
+      <c r="J46" t="s">
+        <v>638</v>
       </c>
       <c r="K46" t="s">
+        <v>639</v>
+      </c>
+      <c r="L46" t="s">
+        <v>639</v>
+      </c>
+      <c r="M46" t="s">
+        <v>649</v>
+      </c>
+      <c r="N46" t="s">
+        <v>649</v>
+      </c>
+      <c r="O46" t="s">
+        <v>641</v>
+      </c>
+      <c r="P46" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>644</v>
+      </c>
+      <c r="R46" t="s">
+        <v>644</v>
+      </c>
+      <c r="S46" t="s">
         <v>623</v>
       </c>
-      <c r="L46" t="s">
+      <c r="T46" t="s">
         <v>623</v>
-      </c>
-      <c r="M46" t="s" s="355">
-        <v>601</v>
-      </c>
-      <c r="N46" t="s" s="355">
-        <v>593</v>
       </c>
     </row>
     <row r="47">
@@ -9642,40 +11397,58 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D47" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="E47" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F47" t="s">
-        <v>586</v>
-      </c>
-      <c r="G47" t="s" s="356">
-        <v>628</v>
-      </c>
-      <c r="H47" t="s" s="356">
-        <v>22</v>
-      </c>
-      <c r="I47" t="s" s="357">
-        <v>620</v>
-      </c>
-      <c r="J47" t="s" s="357">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G47" t="s">
+        <v>340</v>
+      </c>
+      <c r="H47" t="s">
+        <v>340</v>
+      </c>
+      <c r="I47" t="s">
+        <v>638</v>
+      </c>
+      <c r="J47" t="s">
+        <v>638</v>
       </c>
       <c r="K47" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="L47" t="s">
-        <v>624</v>
-      </c>
-      <c r="M47" t="s" s="358">
-        <v>592</v>
-      </c>
-      <c r="N47" t="s" s="358">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M47" t="s">
+        <v>649</v>
+      </c>
+      <c r="N47" t="s">
+        <v>649</v>
+      </c>
+      <c r="O47" t="s">
+        <v>641</v>
+      </c>
+      <c r="P47" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>645</v>
+      </c>
+      <c r="R47" t="s">
+        <v>645</v>
+      </c>
+      <c r="S47" t="s">
+        <v>615</v>
+      </c>
+      <c r="T47" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="48">
@@ -9688,40 +11461,58 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D49" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="E49" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F49" t="s">
-        <v>588</v>
-      </c>
-      <c r="G49" t="s" s="359">
-        <v>630</v>
-      </c>
-      <c r="H49" t="s" s="359">
-        <v>22</v>
-      </c>
-      <c r="I49" t="s" s="360">
-        <v>620</v>
-      </c>
-      <c r="J49" t="s" s="360">
-        <v>22</v>
+        <v>608</v>
+      </c>
+      <c r="G49" t="s">
+        <v>340</v>
+      </c>
+      <c r="H49" t="s">
+        <v>340</v>
+      </c>
+      <c r="I49" t="s">
+        <v>638</v>
+      </c>
+      <c r="J49" t="s">
+        <v>638</v>
       </c>
       <c r="K49" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="L49" t="s">
-        <v>621</v>
-      </c>
-      <c r="M49" t="s" s="361">
-        <v>592</v>
-      </c>
-      <c r="N49" t="s" s="361">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M49" t="s">
+        <v>651</v>
+      </c>
+      <c r="N49" t="s">
+        <v>651</v>
+      </c>
+      <c r="O49" t="s">
+        <v>641</v>
+      </c>
+      <c r="P49" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>642</v>
+      </c>
+      <c r="R49" t="s">
+        <v>642</v>
+      </c>
+      <c r="S49" t="s">
+        <v>615</v>
+      </c>
+      <c r="T49" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="50">
@@ -9729,40 +11520,58 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D50" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="E50" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F50" t="s">
-        <v>598</v>
-      </c>
-      <c r="G50" t="s" s="362">
-        <v>630</v>
-      </c>
-      <c r="H50" t="s" s="362">
-        <v>22</v>
-      </c>
-      <c r="I50" t="s" s="363">
         <v>620</v>
       </c>
-      <c r="J50" t="s" s="363">
-        <v>22</v>
+      <c r="G50" t="s">
+        <v>340</v>
+      </c>
+      <c r="H50" t="s">
+        <v>340</v>
+      </c>
+      <c r="I50" t="s">
+        <v>638</v>
+      </c>
+      <c r="J50" t="s">
+        <v>638</v>
       </c>
       <c r="K50" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="L50" t="s">
-        <v>622</v>
-      </c>
-      <c r="M50" t="s" s="364">
-        <v>592</v>
-      </c>
-      <c r="N50" t="s" s="364">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M50" t="s">
+        <v>651</v>
+      </c>
+      <c r="N50" t="s">
+        <v>651</v>
+      </c>
+      <c r="O50" t="s">
+        <v>641</v>
+      </c>
+      <c r="P50" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>643</v>
+      </c>
+      <c r="R50" t="s">
+        <v>643</v>
+      </c>
+      <c r="S50" t="s">
+        <v>615</v>
+      </c>
+      <c r="T50" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="51">
@@ -9770,40 +11579,58 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D51" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="E51" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F51" t="s">
-        <v>603</v>
-      </c>
-      <c r="G51" t="s" s="365">
-        <v>630</v>
-      </c>
-      <c r="H51" t="s" s="365">
-        <v>22</v>
-      </c>
-      <c r="I51" t="s" s="366">
-        <v>620</v>
-      </c>
-      <c r="J51" t="s" s="366">
-        <v>22</v>
+        <v>626</v>
+      </c>
+      <c r="G51" t="s">
+        <v>340</v>
+      </c>
+      <c r="H51" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51" t="s">
+        <v>638</v>
+      </c>
+      <c r="J51" t="s">
+        <v>638</v>
       </c>
       <c r="K51" t="s">
+        <v>639</v>
+      </c>
+      <c r="L51" t="s">
+        <v>639</v>
+      </c>
+      <c r="M51" t="s">
+        <v>651</v>
+      </c>
+      <c r="N51" t="s">
+        <v>651</v>
+      </c>
+      <c r="O51" t="s">
+        <v>641</v>
+      </c>
+      <c r="P51" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>644</v>
+      </c>
+      <c r="R51" t="s">
+        <v>644</v>
+      </c>
+      <c r="S51" t="s">
         <v>623</v>
       </c>
-      <c r="L51" t="s">
+      <c r="T51" t="s">
         <v>623</v>
-      </c>
-      <c r="M51" t="s" s="367">
-        <v>601</v>
-      </c>
-      <c r="N51" t="s" s="367">
-        <v>593</v>
       </c>
     </row>
     <row r="52">
@@ -9811,40 +11638,58 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D52" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="E52" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F52" t="s">
-        <v>586</v>
-      </c>
-      <c r="G52" t="s" s="368">
-        <v>630</v>
-      </c>
-      <c r="H52" t="s" s="368">
-        <v>22</v>
-      </c>
-      <c r="I52" t="s" s="369">
-        <v>620</v>
-      </c>
-      <c r="J52" t="s" s="369">
-        <v>22</v>
+        <v>606</v>
+      </c>
+      <c r="G52" t="s">
+        <v>340</v>
+      </c>
+      <c r="H52" t="s">
+        <v>340</v>
+      </c>
+      <c r="I52" t="s">
+        <v>638</v>
+      </c>
+      <c r="J52" t="s">
+        <v>638</v>
       </c>
       <c r="K52" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="L52" t="s">
-        <v>624</v>
-      </c>
-      <c r="M52" t="s" s="370">
-        <v>592</v>
-      </c>
-      <c r="N52" t="s" s="370">
-        <v>593</v>
+        <v>639</v>
+      </c>
+      <c r="M52" t="s">
+        <v>651</v>
+      </c>
+      <c r="N52" t="s">
+        <v>651</v>
+      </c>
+      <c r="O52" t="s">
+        <v>641</v>
+      </c>
+      <c r="P52" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>645</v>
+      </c>
+      <c r="R52" t="s">
+        <v>645</v>
+      </c>
+      <c r="S52" t="s">
+        <v>615</v>
+      </c>
+      <c r="T52" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -9895,11 +11740,11 @@
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -9916,7 +11761,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="211" t="s">
         <v>481</v>
       </c>
       <c r="C7" s="118" t="s">
@@ -9930,7 +11775,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="204"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="118" t="s">
         <v>160</v>
       </c>
@@ -9942,7 +11787,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="204"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="118" t="s">
         <v>284</v>
       </c>
@@ -9954,7 +11799,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="204"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="118" t="s">
         <v>29</v>
       </c>
@@ -9966,7 +11811,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="205"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="118" t="s">
         <v>30</v>
       </c>
@@ -9978,7 +11823,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="211" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="118" t="s">
@@ -9992,7 +11837,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="205"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="118" t="s">
         <v>96</v>
       </c>
@@ -10004,7 +11849,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="208" t="s">
+      <c r="B14" s="216" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="118" t="s">
@@ -10018,7 +11863,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="209"/>
+      <c r="B15" s="217"/>
       <c r="C15" s="118" t="s">
         <v>27</v>
       </c>
@@ -10030,7 +11875,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="214" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="118" t="s">
@@ -10044,7 +11889,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="206"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="118" t="s">
         <v>359</v>
       </c>
@@ -10056,7 +11901,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="206"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="118" t="s">
         <v>31</v>
       </c>
@@ -10068,7 +11913,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="214" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="119" t="s">
@@ -10082,7 +11927,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="206"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="119" t="s">
         <v>359</v>
       </c>
@@ -10094,7 +11939,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="206"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="119" t="s">
         <v>360</v>
       </c>
@@ -10106,7 +11951,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="211" t="s">
         <v>474</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -10120,7 +11965,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="204"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="3" t="s">
         <v>476</v>
       </c>
@@ -10132,7 +11977,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="204"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="3" t="s">
         <v>477</v>
       </c>
@@ -10144,7 +11989,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="205"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="3" t="s">
         <v>478</v>
       </c>
@@ -10156,7 +12001,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="203" t="s">
+      <c r="B26" s="211" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -10170,7 +12015,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="204"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="3" t="s">
         <v>325</v>
       </c>
@@ -10182,7 +12027,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="204"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="3" t="s">
         <v>362</v>
       </c>
@@ -10194,7 +12039,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="204"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="3" t="s">
         <v>326</v>
       </c>
@@ -10206,7 +12051,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="205"/>
+      <c r="B30" s="213"/>
       <c r="C30" s="3" t="s">
         <v>363</v>
       </c>
@@ -12724,73 +14569,73 @@
   </cols>
   <sheetData>
     <row customFormat="1" ht="26.25" r="1" s="29" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="224" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="226"/>
     </row>
     <row ht="13.5" r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="229"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="223"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="231"/>
     </row>
     <row ht="13.5" r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="226"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="234"/>
     </row>
     <row ht="13.5" r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J6" s="68"/>
     </row>
     <row ht="13.5" r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="235" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="229"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="237"/>
     </row>
     <row ht="13.5" r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -12933,32 +14778,32 @@
     </row>
     <row ht="13.5" r="19" spans="1:9" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="20" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="228"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="229"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="237"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="218" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213" t="s">
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="221" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="215"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="223"/>
     </row>
     <row ht="13.5" r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
@@ -13155,71 +15000,71 @@
   </cols>
   <sheetData>
     <row ht="26.25" r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="224" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="226"/>
     </row>
     <row ht="13.5" r="2" spans="1:11" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="229"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="223"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="231"/>
     </row>
     <row ht="13.5" r="5" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="232"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
     </row>
     <row ht="13.5" r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="235" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="229"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="237"/>
     </row>
     <row ht="13.5" r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -13399,32 +15244,32 @@
     </row>
     <row ht="13.5" r="19" spans="1:22" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="20" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="228"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="229"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="237"/>
     </row>
     <row customHeight="1" ht="31.5" r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="237" t="s">
+      <c r="A21" s="242" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213" t="s">
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="221" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="215"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="223"/>
       <c r="V21" s="56"/>
     </row>
     <row customFormat="1" ht="13.5" r="22" s="37" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
@@ -13813,32 +15658,32 @@
     </row>
     <row ht="13.5" r="35" spans="1:22" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="36" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="227" t="s">
+      <c r="A36" s="235" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="228"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="228"/>
-      <c r="G36" s="228"/>
-      <c r="H36" s="228"/>
-      <c r="I36" s="229"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="236"/>
+      <c r="D36" s="236"/>
+      <c r="E36" s="236"/>
+      <c r="F36" s="236"/>
+      <c r="G36" s="236"/>
+      <c r="H36" s="236"/>
+      <c r="I36" s="237"/>
     </row>
     <row customHeight="1" ht="26.25" r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="233" t="s">
+      <c r="A37" s="238" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="234"/>
-      <c r="C37" s="234"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="236" t="s">
+      <c r="B37" s="239"/>
+      <c r="C37" s="239"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="240"/>
+      <c r="F37" s="241" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214"/>
-      <c r="I37" s="215"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="223"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="105" t="s">
@@ -14193,17 +16038,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:B18" type="list">
@@ -14278,44 +16123,44 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="30" r="1" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="224" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="226"/>
     </row>
     <row ht="13.5" r="2" spans="1:34" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="229"/>
     </row>
     <row ht="13.5" r="4" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="241"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="252"/>
     </row>
     <row ht="13.5" r="5" spans="1:34" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="6" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
@@ -14341,10 +16186,10 @@
       <c r="R6" s="187"/>
       <c r="S6" s="187"/>
       <c r="T6" s="188"/>
-      <c r="U6" s="242" t="s">
+      <c r="U6" s="246" t="s">
         <v>288</v>
       </c>
-      <c r="V6" s="243"/>
+      <c r="V6" s="247"/>
       <c r="W6" s="81"/>
       <c r="X6" s="81"/>
       <c r="Y6" s="81"/>
@@ -16213,32 +18058,32 @@
       <c r="X57" s="81"/>
     </row>
     <row ht="13.5" r="58" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="227" t="s">
+      <c r="A58" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="228"/>
-      <c r="C58" s="228"/>
-      <c r="D58" s="228"/>
-      <c r="E58" s="228"/>
-      <c r="F58" s="228"/>
-      <c r="G58" s="228"/>
-      <c r="H58" s="228"/>
-      <c r="I58" s="229"/>
+      <c r="B58" s="236"/>
+      <c r="C58" s="236"/>
+      <c r="D58" s="236"/>
+      <c r="E58" s="236"/>
+      <c r="F58" s="236"/>
+      <c r="G58" s="236"/>
+      <c r="H58" s="236"/>
+      <c r="I58" s="237"/>
     </row>
     <row customHeight="1" ht="12.75" outlineLevel="1" r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="210" t="s">
+      <c r="A59" s="218" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="211"/>
-      <c r="C59" s="211"/>
-      <c r="D59" s="211"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="238" t="s">
+      <c r="B59" s="219"/>
+      <c r="C59" s="219"/>
+      <c r="D59" s="219"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="G59" s="214"/>
-      <c r="H59" s="214"/>
-      <c r="I59" s="215"/>
+      <c r="G59" s="222"/>
+      <c r="H59" s="222"/>
+      <c r="I59" s="223"/>
     </row>
     <row customFormat="1" ht="26.25" outlineLevel="1" r="60" s="37" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
@@ -16532,32 +18377,32 @@
     </row>
     <row ht="13.5" r="72" spans="1:9" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="73" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="227" t="s">
+      <c r="A73" s="235" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="228"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="228"/>
-      <c r="G73" s="228"/>
-      <c r="H73" s="228"/>
-      <c r="I73" s="229"/>
+      <c r="B73" s="236"/>
+      <c r="C73" s="236"/>
+      <c r="D73" s="236"/>
+      <c r="E73" s="236"/>
+      <c r="F73" s="236"/>
+      <c r="G73" s="236"/>
+      <c r="H73" s="236"/>
+      <c r="I73" s="237"/>
     </row>
     <row outlineLevel="1" r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="244" t="s">
+      <c r="A74" s="248" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="211"/>
-      <c r="C74" s="211"/>
-      <c r="D74" s="211"/>
-      <c r="E74" s="239"/>
-      <c r="F74" s="238" t="s">
+      <c r="B74" s="219"/>
+      <c r="C74" s="219"/>
+      <c r="D74" s="219"/>
+      <c r="E74" s="249"/>
+      <c r="F74" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="G74" s="214"/>
-      <c r="H74" s="214"/>
-      <c r="I74" s="215"/>
+      <c r="G74" s="222"/>
+      <c r="H74" s="222"/>
+      <c r="I74" s="223"/>
     </row>
     <row ht="26.25" outlineLevel="1" r="75" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
@@ -16645,16 +18490,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B4:I4"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="F74:I74"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B4:I4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B61:B71 B76:B80" type="list">

--- a/Reports/Demo_rep_Report_Iteration_12.xlsx
+++ b/Reports/Demo_rep_Report_Iteration_12.xlsx
@@ -2427,7 +2427,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="67">
+  <fills count="65">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2795,12 +2795,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
@@ -2813,12 +2807,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4102,7 +4090,7 @@
     <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="52" fontId="40" numFmtId="0" xfId="43">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="62" fontId="43" numFmtId="0" xfId="47" applyFill="true">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="64" fontId="43" numFmtId="0" xfId="47" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="46" fontId="20" numFmtId="0" xfId="48">
@@ -4285,73 +4273,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
